--- a/src/main/resources/excel/ejemplo1.xlsx
+++ b/src/main/resources/excel/ejemplo1.xlsx
@@ -8,9 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="hojaejemplo1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="hojaejemplo2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="hojaejemplo3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="hojaejemplo11" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="hojaejemplo12" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="hojaejemplo13" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="5">
   <si>
     <t xml:space="preserve">a</t>
   </si>
@@ -111,8 +111,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -133,31 +137,43 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -177,36 +193,51 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -226,21 +257,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>

--- a/src/main/resources/excel/ejemplo1.xlsx
+++ b/src/main/resources/excel/ejemplo1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="hojaejemplo11" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t xml:space="preserve">a</t>
   </si>
@@ -37,6 +37,24 @@
   </si>
   <si>
     <t xml:space="preserve">e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j</t>
   </si>
 </sst>
 </file>
@@ -139,11 +157,11 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -196,49 +214,49 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:B2"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -259,26 +277,26 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excel/ejemplo1.xlsx
+++ b/src/main/resources/excel/ejemplo1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="hojaejemplo11" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,39 +22,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
   <si>
     <t xml:space="preserve">a</t>
   </si>
   <si>
+    <t xml:space="preserve">sentence1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oracion1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
     <t xml:space="preserve">b</t>
   </si>
   <si>
+    <t xml:space="preserve">sentence2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oracion2</t>
+  </si>
+  <si>
     <t xml:space="preserve">c</t>
   </si>
   <si>
+    <t xml:space="preserve">sentence3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oracion3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
     <t xml:space="preserve">d</t>
   </si>
   <si>
+    <t xml:space="preserve">sentence4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oracion4</t>
+  </si>
+  <si>
     <t xml:space="preserve">e</t>
   </si>
   <si>
+    <t xml:space="preserve">Sentence12 – 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">f</t>
   </si>
   <si>
+    <t xml:space="preserve">Sentence12 – 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">g</t>
   </si>
   <si>
+    <t xml:space="preserve">Sentence12 – 3</t>
+  </si>
+  <si>
     <t xml:space="preserve">h</t>
   </si>
   <si>
+    <t xml:space="preserve">Sentence12 – 4</t>
+  </si>
+  <si>
     <t xml:space="preserve">ch</t>
   </si>
   <si>
     <t xml:space="preserve">I</t>
   </si>
   <si>
+    <t xml:space="preserve">Sentence13 – 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sentence13 – 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sentence13 – 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sentence13 – 4</t>
   </si>
 </sst>
 </file>
@@ -155,13 +209,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -170,29 +224,65 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -211,52 +301,91 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.89"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -275,27 +404,70 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.67"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>10</v>
       </c>
     </row>

--- a/src/main/resources/excel/ejemplo1.xlsx
+++ b/src/main/resources/excel/ejemplo1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="hojaejemplo11" sheetId="1" state="visible" r:id="rId2"/>
@@ -115,8 +115,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -183,12 +184,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -209,13 +214,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1:E4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -224,14 +229,17 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="0" t="s">
-        <v>3</v>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -241,13 +249,13 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -258,13 +266,13 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -275,13 +283,13 @@
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -301,15 +309,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1:E4"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.89"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -319,14 +327,17 @@
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="0" t="s">
-        <v>3</v>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -336,13 +347,13 @@
       <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -353,13 +364,13 @@
       <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -370,13 +381,13 @@
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -404,15 +415,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1:E4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -422,14 +433,17 @@
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="0" t="s">
-        <v>3</v>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -439,35 +453,35 @@
       <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
